--- a/Documents/策划/角色设定.xlsx
+++ b/Documents/策划/角色设定.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="301">
   <si>
     <t>J-普通攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,131 +1085,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>执行力增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲动不理性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.石化武器 Xs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3）使召唤物拥有石化2特性Xs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重视结果成功与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能阴沟翻船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻视对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不半途而废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望挖出更多的钻石,而夜以继日的挖矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能调制药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏击者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长潜行,往往在意料不到的时候出现在敌人背后给予致命一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾走1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎头者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷长矛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亵渎者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使使用会封印自身力量的十字架为武器,也能轻易的战胜对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜血法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒镖陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Xs内移速增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.第X+1s-X+3s眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.BUFF结束后自损一血,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继承疾走1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Xs内隐身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为更加懒惰而发明一劳永逸的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾走2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不轻易释放法术,只有到关键时候，才会以鲜血为代价释放强力的法术（第一次命中敌人回1血）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（2）射程增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行力增强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲动不理性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.石化武器 Xs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3）使召唤物拥有石化2特性Xs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重视结果成功与否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能阴沟翻船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻视对手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不半途而废</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渴望挖出更多的钻石,而夜以继日的挖矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能调制药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏击者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长潜行,往往在意料不到的时候出现在敌人背后给予致命一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾走1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎头者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投掷长矛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亵渎者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即使使用会封印自身力量的十字架为武器,也能轻易的战胜对手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战猎人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在弓术了得的同时,不忘对自身格斗能力的锻炼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜血法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒镖陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Xs内移速增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.第X+1s-X+3s眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.BUFF结束后自损一血,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.继承疾走1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Xs内隐身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为更加懒惰而发明一劳永逸的东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾走2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不轻易释放法术,只有到关键时候，才会以鲜血为代价释放强力的法术（第一次命中敌人回1血）</t>
+    <t>藐视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Xs内所有怪物攻速移速减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Xs内所受伤害翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弓术了得的同时,不忘体术的锻炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2801,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2847,7 +2863,7 @@
         <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -2855,7 +2871,7 @@
         <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
         <v>234</v>
@@ -2881,7 +2897,7 @@
         <v>247</v>
       </c>
       <c r="K4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -2933,7 +2949,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
         <v>255</v>
@@ -2965,13 +2981,13 @@
         <v>231</v>
       </c>
       <c r="L13" t="s">
+        <v>284</v>
+      </c>
+      <c r="M13" t="s">
+        <v>285</v>
+      </c>
+      <c r="N13" t="s">
         <v>286</v>
-      </c>
-      <c r="M13" t="s">
-        <v>287</v>
-      </c>
-      <c r="N13" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -3014,7 +3030,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -3024,12 +3040,12 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -3037,13 +3053,13 @@
         <v>216</v>
       </c>
       <c r="B25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" t="s">
         <v>266</v>
       </c>
-      <c r="C25" t="s">
-        <v>267</v>
-      </c>
       <c r="D25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F25" t="s">
         <v>233</v>
@@ -3051,21 +3067,21 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F26" t="s">
         <v>234</v>
       </c>
       <c r="H26" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" t="s">
         <v>276</v>
-      </c>
-      <c r="I26" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F27" t="s">
         <v>235</v>
@@ -3073,26 +3089,26 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
         <v>236</v>
       </c>
       <c r="H28" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" t="s">
         <v>279</v>
-      </c>
-      <c r="I28" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -3100,41 +3116,53 @@
         <v>226</v>
       </c>
       <c r="B35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" t="s">
         <v>270</v>
       </c>
-      <c r="C35" t="s">
-        <v>271</v>
+      <c r="D35" t="s">
+        <v>296</v>
       </c>
       <c r="F35" t="s">
         <v>233</v>
       </c>
       <c r="H35" t="s">
+        <v>280</v>
+      </c>
+      <c r="I35" t="s">
         <v>281</v>
-      </c>
-      <c r="I35" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="D36" t="s">
+        <v>297</v>
       </c>
       <c r="F36" t="s">
         <v>234</v>
       </c>
+      <c r="H36" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>298</v>
+      </c>
       <c r="F37" t="s">
         <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -3142,10 +3170,10 @@
         <v>236</v>
       </c>
       <c r="H38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I38" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3290,7 +3318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Documents/策划/角色设定.xlsx
+++ b/Documents/策划/角色设定.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">动作表!$A$1:$M$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">总表!$B$1:$T$5</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="302">
   <si>
     <t>J-普通攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,6 +1049,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>石化2：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量的代价1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化1：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继承石化1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)击退击飞效果增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行力增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲动不理性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.石化武器 Xs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3）使召唤物拥有石化2特性Xs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重视结果成功与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能阴沟翻船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻视对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不半途而废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望挖出更多的钻石,而夜以继日的挖矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能调制药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏击者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长潜行,往往在意料不到的时候出现在敌人背后给予致命一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾走1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎头者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷长矛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亵渎者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使使用会封印自身力量的十字架为武器,也能轻易的战胜对手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜血法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒镖陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.第X+1s-X+3s眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.BUFF结束后自损一血,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为更加懒惰而发明一劳永逸的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不轻易释放法术,只有到关键时候，才会以鲜血为代价释放强力的法术（第一次命中敌人回1血）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）射程增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藐视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弓术了得的同时,不忘体术的锻炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.降低攻速移速Xs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1061,115 +1205,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.降低3次伤害后,自动解除石化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石化2：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量的代价1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石化1：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.继承石化1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1)击退击飞效果增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行力增强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲动不理性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.石化武器 Xs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3）使召唤物拥有石化2特性Xs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重视结果成功与否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能阴沟翻船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻视对手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不半途而废</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渴望挖出更多的钻石,而夜以继日的挖矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能调制药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏击者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长潜行,往往在意料不到的时候出现在敌人背后给予致命一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾走1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎头者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投掷长矛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亵渎者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即使使用会封印自身力量的十字架为武器,也能轻易的战胜对手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战猎人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜血法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒镖陷阱</t>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>降低3次伤害后,自动解除石化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾走2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继承疾走1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Xs内隐身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1177,63 +1238,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.第X+1s-X+3s眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.BUFF结束后自损一血,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.继承疾走1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Xs内隐身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为更加懒惰而发明一劳永逸的东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾走2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不轻易释放法术,只有到关键时候，才会以鲜血为代价释放强力的法术（第一次命中敌人回1血）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2）射程增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藐视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.Xs内所有怪物攻速移速减半</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2.Xs内所受伤害翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在弓术了得的同时,不忘体术的锻炼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,6 +1285,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1477,7 +1502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1509,10 +1534,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1544,7 +1568,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1720,14 +1743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
@@ -1752,7 +1775,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="40.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>209</v>
       </c>
@@ -1814,7 +1837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="114.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>207</v>
       </c>
@@ -1876,7 +1899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="129" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
@@ -1938,7 +1961,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="113.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>207</v>
       </c>
@@ -2000,7 +2023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="100.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>207</v>
       </c>
@@ -2062,7 +2085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="138.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -2124,7 +2147,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="123" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>214</v>
       </c>
@@ -2186,7 +2209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="115.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -2248,7 +2271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="111.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>214</v>
       </c>
@@ -2310,7 +2333,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="78.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>216</v>
       </c>
@@ -2372,7 +2395,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="87.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>216</v>
       </c>
@@ -2434,7 +2457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="111" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>216</v>
       </c>
@@ -2496,7 +2519,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="93" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>216</v>
       </c>
@@ -2558,7 +2581,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="122.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>218</v>
       </c>
@@ -2620,7 +2643,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="116.25" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>218</v>
       </c>
@@ -2682,7 +2705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="106.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>218</v>
       </c>
@@ -2744,7 +2767,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="139.5" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>219</v>
       </c>
@@ -2814,14 +2837,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
@@ -2829,7 +2852,7 @@
     <col min="9" max="9" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
         <v>221</v>
       </c>
@@ -2843,7 +2866,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>207</v>
       </c>
@@ -2854,7 +2877,10 @@
         <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>233</v>
@@ -2863,15 +2889,18 @@
         <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>284</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>234</v>
@@ -2883,10 +2912,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="D4" t="s">
         <v>249</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
       <c r="F4" t="s">
         <v>235</v>
       </c>
@@ -2897,13 +2929,16 @@
         <v>247</v>
       </c>
       <c r="K4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="D5" t="s">
         <v>250</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
       <c r="F5" t="s">
         <v>236</v>
       </c>
@@ -2914,25 +2949,25 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="D7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="D8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="17.25" customHeight="1">
       <c r="D9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="53.25" customHeight="1"/>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>254</v>
@@ -2941,21 +2976,21 @@
         <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
         <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
         <v>233</v>
@@ -2967,9 +3002,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="D13" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
         <v>234</v>
@@ -2981,18 +3016,18 @@
         <v>231</v>
       </c>
       <c r="L13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M13" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="D14" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
         <v>235</v>
@@ -3004,9 +3039,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="D15" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="F15" t="s">
         <v>236</v>
@@ -3018,162 +3053,162 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="D17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="D18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="D20" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
+    <row r="21" spans="1:9">
+      <c r="D21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="D22" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F25" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="D26" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F26" t="s">
         <v>234</v>
       </c>
       <c r="H26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="D27" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="D28" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F28" t="s">
         <v>236</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="D29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="D30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>226</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D35" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F35" t="s">
         <v>233</v>
       </c>
       <c r="H35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D36" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F36" t="s">
         <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="D37" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F37" t="s">
         <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="F38" t="s">
         <v>236</v>
       </c>
       <c r="H38" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3184,19 +3219,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>206</v>
       </c>
@@ -3216,7 +3251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>208</v>
       </c>
@@ -3236,7 +3271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="31.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>210</v>
       </c>
@@ -3256,7 +3291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="31.5" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>211</v>
       </c>
@@ -3276,7 +3311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="31.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
@@ -3296,18 +3331,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="7" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="12" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="31.5" customHeight="1"/>
+    <row r="17" ht="31.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3315,19 +3350,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>209</v>
       </c>
@@ -3338,7 +3373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>207</v>
       </c>
@@ -3349,7 +3384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>210</v>
@@ -3358,7 +3393,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>211</v>
@@ -3367,7 +3402,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>212</v>
@@ -3376,7 +3411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>215</v>
       </c>
@@ -3387,7 +3422,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>210</v>
@@ -3396,7 +3431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>211</v>
@@ -3405,7 +3440,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>213</v>
@@ -3414,7 +3449,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>216</v>
       </c>
@@ -3425,7 +3460,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>210</v>
@@ -3434,7 +3469,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>217</v>
@@ -3443,7 +3478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>213</v>
@@ -3452,7 +3487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>218</v>
       </c>
@@ -3463,7 +3498,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
         <v>210</v>
@@ -3472,7 +3507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>211</v>
@@ -3481,7 +3516,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>213</v>
@@ -3503,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -3511,7 +3546,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
@@ -3521,7 +3556,7 @@
     <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="2" t="s">
         <v>209</v>
       </c>
@@ -3562,7 +3597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="132" hidden="1">
       <c r="A2" s="14" t="s">
         <v>207</v>
       </c>
@@ -3603,7 +3638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="165" hidden="1">
       <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
@@ -3644,7 +3679,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="132" hidden="1">
       <c r="A4" s="14" t="s">
         <v>207</v>
       </c>
@@ -3685,7 +3720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="99" hidden="1">
       <c r="A5" s="3" t="s">
         <v>207</v>
       </c>
@@ -3726,7 +3761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="148.5">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -3767,7 +3802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="198" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="198">
       <c r="A7" s="3" t="s">
         <v>214</v>
       </c>
@@ -3808,7 +3843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="148.5">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -3849,7 +3884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="181.5">
       <c r="A9" s="3" t="s">
         <v>214</v>
       </c>
@@ -3890,7 +3925,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="115.5">
       <c r="A10" s="3" t="s">
         <v>216</v>
       </c>
@@ -3931,7 +3966,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="148.5">
       <c r="A11" s="3" t="s">
         <v>216</v>
       </c>
@@ -3972,7 +4007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="181.5">
       <c r="A12" s="3" t="s">
         <v>216</v>
       </c>
@@ -4013,7 +4048,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="115.5">
       <c r="A13" s="3" t="s">
         <v>216</v>
       </c>
@@ -4054,7 +4089,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="198" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="198" hidden="1">
       <c r="A14" s="3" t="s">
         <v>218</v>
       </c>
@@ -4095,7 +4130,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="148.5" hidden="1">
       <c r="A15" s="3" t="s">
         <v>218</v>
       </c>
@@ -4136,7 +4171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="115.5" hidden="1">
       <c r="A16" s="3" t="s">
         <v>218</v>
       </c>
@@ -4177,7 +4212,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="115.5" hidden="1">
       <c r="A17" s="3" t="s">
         <v>219</v>
       </c>
@@ -4234,14 +4269,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
